--- a/Tables/Sources/guide/guide.xlsx
+++ b/Tables/Sources/guide/guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="28800" windowHeight="11800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -52,123 +52,6 @@
   </si>
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>测试引导</t>
-  </si>
-  <si>
-    <t>FirstLevelTrigger</t>
-  </si>
-  <si>
-    <t>引导使用锤子</t>
-  </si>
-  <si>
-    <t>ClickExplodeAreaTrigger</t>
-  </si>
-  <si>
-    <t>引导使用雨伞</t>
-  </si>
-  <si>
-    <t>UsePowerUmbrellaTrigger</t>
-  </si>
-  <si>
-    <t>引导使用小炸弹</t>
-  </si>
-  <si>
-    <t>UseHorizontalAndVerticalBombTrigger</t>
-  </si>
-  <si>
-    <t>引导使用大炸弹</t>
-  </si>
-  <si>
-    <t>UseBigBombTrigger</t>
-  </si>
-  <si>
-    <t>引导使用雨伞Item</t>
-  </si>
-  <si>
-    <t>UsePowerUmbrellaItemTrigger</t>
-  </si>
-  <si>
-    <t>引导使用剪刀</t>
-  </si>
-  <si>
-    <t>ClickCrossClearTrigger</t>
-  </si>
-  <si>
-    <t>引导使用FreeMove</t>
-  </si>
-  <si>
-    <t>ClickFreeMoveTrigger</t>
-  </si>
-  <si>
-    <t>引导进入换装界面(连衣裙)</t>
-  </si>
-  <si>
-    <t>GuideEnterDressPanelTrigger</t>
-  </si>
-  <si>
-    <t>关卡进入</t>
-  </si>
-  <si>
-    <t>GuideEnterLevelTrigger</t>
-  </si>
-  <si>
-    <t>引导进入换装界面(鞋子)</t>
-  </si>
-  <si>
-    <t>GuideEnterShoesPanelTrigger</t>
-  </si>
-  <si>
-    <t>GuideEnterLevel2Trigger</t>
-  </si>
-  <si>
-    <t>地图进入</t>
-  </si>
-  <si>
-    <t>GuideEnterMapTrigger</t>
-  </si>
-  <si>
-    <t>进入故事剧情</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowEnterTrigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExitTrigger</t>
-  </si>
-  <si>
-    <t>进入故事剧情2</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowEnter2Trigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情2</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExit2Trigger</t>
-  </si>
-  <si>
-    <t>退出故事剧情3（进入衣服商城）</t>
-  </si>
-  <si>
-    <t>GuideMapStoryShowExit3Trigger</t>
-  </si>
-  <si>
-    <t>衣服商城点击裤子够买</t>
-  </si>
-  <si>
-    <t>GuideEnterClothesShopPantsTrigger</t>
-  </si>
-  <si>
-    <t>退出衣服商城</t>
-  </si>
-  <si>
-    <t>GuideExitClothesShopPanelTrigger</t>
   </si>
   <si>
     <t>模块</t>
@@ -295,11 +178,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -328,6 +211,50 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -340,7 +267,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,11 +312,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,72 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -444,35 +335,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -495,67 +378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,55 +522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,49 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,15 +702,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,32 +722,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -891,8 +739,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,8 +798,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,7 +1397,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="$A5:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1608,225 +1491,69 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="20">
-        <v>2</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="20">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="20">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="20">
-        <v>5</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="20">
-        <v>6</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="20">
-        <v>7</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="20">
-        <v>8</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="20">
-        <v>9</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="20">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="20">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="20">
-        <v>12</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="20">
-        <v>13</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="20">
-        <v>14</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="20">
-        <v>15</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="20">
-        <v>17</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="20">
-        <v>18</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:3">
-      <c r="A23" s="20">
-        <v>19</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:3">
-      <c r="A24" s="20">
-        <v>20</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
+    <row r="6" spans="1:1">
+      <c r="A6" s="20"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="20"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="20"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="20"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="20"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="20"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="20"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="20"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,56 +1579,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -1910,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1927,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1944,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1961,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1978,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1991,29 +1718,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2021,29 +1748,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2055,10 +1782,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2077,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2099,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2121,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
